--- a/results/lancet2018/global/1.3 labour/wbgt_delta_yearly_mean.xlsx
+++ b/results/lancet2018/global/1.3 labour/wbgt_delta_yearly_mean.xlsx
@@ -396,7 +396,7 @@
         <v>1980</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.01730957813560963</v>
+        <v>0.02500246278941631</v>
       </c>
       <c r="C2" t="s"/>
     </row>
@@ -405,7 +405,7 @@
         <v>1981</v>
       </c>
       <c r="B3" t="n">
-        <v>0.003181693609803915</v>
+        <v>0.0003580726915970445</v>
       </c>
       <c r="C3" t="s"/>
     </row>
@@ -414,7 +414,7 @@
         <v>1982</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.1481405347585678</v>
+        <v>-0.1511754244565964</v>
       </c>
       <c r="C4" t="s"/>
     </row>
@@ -423,7 +423,7 @@
         <v>1983</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0309022031724453</v>
+        <v>-0.03377336263656616</v>
       </c>
       <c r="C5" t="s"/>
     </row>
@@ -432,7 +432,7 @@
         <v>1984</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.1445888429880142</v>
+        <v>-0.102456770837307</v>
       </c>
       <c r="C6" t="s"/>
     </row>
@@ -441,7 +441,7 @@
         <v>1985</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.1530554741621017</v>
+        <v>-0.1561631262302399</v>
       </c>
       <c r="C7" t="s"/>
     </row>
@@ -450,7 +450,7 @@
         <v>1986</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.1030458584427834</v>
+        <v>-0.1060501784086227</v>
       </c>
       <c r="C8" t="s"/>
     </row>
@@ -459,7 +459,7 @@
         <v>1987</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.03679845482110977</v>
+        <v>-0.03969090431928635</v>
       </c>
       <c r="C9" t="s"/>
     </row>
@@ -468,7 +468,7 @@
         <v>1988</v>
       </c>
       <c r="B10" t="n">
-        <v>0.009905309416353703</v>
+        <v>0.05222860351204872</v>
       </c>
       <c r="C10" t="s"/>
     </row>
@@ -477,7 +477,7 @@
         <v>1989</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.08031147718429565</v>
+        <v>-0.08326724171638489</v>
       </c>
       <c r="C11" t="s"/>
     </row>
@@ -486,7 +486,7 @@
         <v>1990</v>
       </c>
       <c r="B12" t="n">
-        <v>0.03269562125205994</v>
+        <v>0.0298287458717823</v>
       </c>
       <c r="C12" t="s"/>
     </row>
@@ -495,7 +495,7 @@
         <v>1991</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.001062207506038249</v>
+        <v>-0.003979225642979145</v>
       </c>
       <c r="C13" t="s"/>
     </row>
@@ -504,7 +504,7 @@
         <v>1992</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.1491252928972244</v>
+        <v>-0.1070303544402122</v>
       </c>
       <c r="C14" t="s"/>
     </row>
@@ -513,7 +513,7 @@
         <v>1993</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.1049719452857971</v>
+        <v>-0.1080002933740616</v>
       </c>
       <c r="C15" t="s"/>
     </row>
@@ -522,7 +522,7 @@
         <v>1994</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.08843490481376648</v>
+        <v>-0.09143839776515961</v>
       </c>
       <c r="C16" t="s"/>
     </row>
@@ -531,7 +531,7 @@
         <v>1995</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0264352522790432</v>
+        <v>0.02354016341269016</v>
       </c>
       <c r="C17" t="s"/>
     </row>
@@ -540,7 +540,7 @@
         <v>1996</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.05771190673112869</v>
+        <v>-0.01553051825612783</v>
       </c>
       <c r="C18" t="s"/>
     </row>
@@ -549,7 +549,7 @@
         <v>1997</v>
       </c>
       <c r="B19" t="n">
-        <v>0.01680768840014935</v>
+        <v>0.01393185090273619</v>
       </c>
       <c r="C19" t="s"/>
     </row>
@@ -558,7 +558,7 @@
         <v>1998</v>
       </c>
       <c r="B20" t="n">
-        <v>0.09226176887750626</v>
+        <v>0.08950147032737732</v>
       </c>
       <c r="C20" t="s"/>
     </row>
@@ -567,7 +567,7 @@
         <v>1999</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.0579848550260067</v>
+        <v>-0.06095295026898384</v>
       </c>
       <c r="C21" t="s"/>
     </row>
@@ -576,10 +576,10 @@
         <v>2000</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.03590459376573563</v>
+        <v>0.006332755088806152</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0238429853112633</v>
+        <v>0.1564161452705645</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -587,10 +587,10 @@
         <v>2001</v>
       </c>
       <c r="B23" t="n">
-        <v>0.04918944090604782</v>
+        <v>0.04633063822984695</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1265939636525423</v>
+        <v>0.1330408665237498</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -598,10 +598,10 @@
         <v>2002</v>
       </c>
       <c r="B24" t="n">
-        <v>0.07473559677600861</v>
+        <v>0.0719311311841011</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2773251964092733</v>
+        <v>0.2833554389218751</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -609,10 +609,10 @@
         <v>2003</v>
       </c>
       <c r="B25" t="n">
-        <v>0.07755603641271591</v>
+        <v>0.07471087574958801</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1328615707999097</v>
+        <v>0.1399484196422061</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -620,10 +620,10 @@
         <v>2004</v>
       </c>
       <c r="B26" t="n">
-        <v>0.02169947139918804</v>
+        <v>0.06399945169687271</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1571907829394841</v>
+        <v>0.2881531019664385</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -631,10 +631,10 @@
         <v>2005</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1463921368122101</v>
+        <v>0.1436043679714203</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0888158998442191</v>
+        <v>0.09658733448403999</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -642,10 +642,10 @@
         <v>2006</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1139599159359932</v>
+        <v>0.111150398850441</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3443240306501074</v>
+        <v>0.3509853283709976</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -653,10 +653,10 @@
         <v>2007</v>
       </c>
       <c r="B29" t="n">
-        <v>0.07294051349163055</v>
+        <v>0.07000509649515152</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3143429561997645</v>
+        <v>0.3208103233789903</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -664,10 +664,10 @@
         <v>2008</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.01859778165817261</v>
+        <v>0.02354472316801548</v>
       </c>
       <c r="C30" t="n">
-        <v>0.08814544478484368</v>
+        <v>0.2165053646812125</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -675,10 +675,10 @@
         <v>2009</v>
       </c>
       <c r="B31" t="n">
-        <v>0.06318440288305283</v>
+        <v>0.06029041856527328</v>
       </c>
       <c r="C31" t="n">
-        <v>0.257684592545643</v>
+        <v>0.2665091436069119</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -686,10 +686,10 @@
         <v>2010</v>
       </c>
       <c r="B32" t="n">
-        <v>0.1227956563234329</v>
+        <v>0.1200166866183281</v>
       </c>
       <c r="C32" t="n">
-        <v>0.356422511122321</v>
+        <v>0.3664245417610682</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -697,10 +697,10 @@
         <v>2011</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0656808465719223</v>
+        <v>0.06279107928276062</v>
       </c>
       <c r="C33" t="n">
-        <v>0.02661849905354026</v>
+        <v>0.03316902301931791</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -708,10 +708,10 @@
         <v>2012</v>
       </c>
       <c r="B34" t="n">
-        <v>0.05883399024605751</v>
+        <v>0.1011646538972855</v>
       </c>
       <c r="C34" t="n">
-        <v>0.08443876727125624</v>
+        <v>0.2151102139171489</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -719,10 +719,10 @@
         <v>2013</v>
       </c>
       <c r="B35" t="n">
-        <v>0.07844658195972443</v>
+        <v>0.07558383047580719</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2478515122811195</v>
+        <v>0.2552567759636301</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -730,10 +730,10 @@
         <v>2014</v>
       </c>
       <c r="B36" t="n">
-        <v>0.1050806120038033</v>
+        <v>0.1022626832127571</v>
       </c>
       <c r="C36" t="n">
-        <v>0.3571556237773139</v>
+        <v>0.3653962244908703</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -741,10 +741,10 @@
         <v>2015</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1938248872756958</v>
+        <v>0.1911543011665344</v>
       </c>
       <c r="C37" t="n">
-        <v>0.5951524666802839</v>
+        <v>0.6045182943883625</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -752,10 +752,10 @@
         <v>2016</v>
       </c>
       <c r="B38" t="n">
-        <v>0.3106300234794617</v>
+        <v>0.3532899916172028</v>
       </c>
       <c r="C38" t="n">
-        <v>0.7489357242874853</v>
+        <v>0.8786990915179258</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -763,10 +763,10 @@
         <v>2017</v>
       </c>
       <c r="B39" t="n">
-        <v>0.2408528923988342</v>
+        <v>0.238208144903183</v>
       </c>
       <c r="C39" t="n">
-        <v>0.5900123445952559</v>
+        <v>0.5991854965370429</v>
       </c>
     </row>
   </sheetData>
